--- a/Day 1 - Practise.xlsx
+++ b/Day 1 - Practise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Documents\GitHub\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19770B4-8204-4E89-8848-639A57899CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CB9D0-86AD-4D65-957D-0150256D00A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEE7DDC4-2F97-4459-8362-CCE405D5E398}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A73E066-0EAF-4F2E-AB34-EC0B4EC30272}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
